--- a/OriginalShirts/Design/Обновления/Renew.xlsx
+++ b/OriginalShirts/Design/Обновления/Renew.xlsx
@@ -25,15 +25,6 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>Переименовать вкладку: Интернет магазин модной одежды: футболки, майки, шарфы, юбки</t>
-  </si>
-  <si>
-    <t>Вкладка товара</t>
-  </si>
-  <si>
-    <t>Вкладка главной страницы</t>
-  </si>
-  <si>
     <t>Купить мужскую футболку, (купить женскую футболку) Украина</t>
   </si>
   <si>
@@ -68,6 +59,15 @@
   </si>
   <si>
     <t>Перевести на русский</t>
+  </si>
+  <si>
+    <t>Title главной страницы</t>
+  </si>
+  <si>
+    <t>Переименовать title: Интернет магазин модной одежды: футболки, майки, шарфы, юбки</t>
+  </si>
+  <si>
+    <t>Title товара</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -465,63 +465,63 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
